--- a/Relatório de Colaboradores.xlsx
+++ b/Relatório de Colaboradores.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Relatório de Colaboradores.xlsx
+++ b/Relatório de Colaboradores.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A5:B6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Relatório de Colaboradores.xlsx
+++ b/Relatório de Colaboradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t xml:space="preserve">E-MAIL</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">pedro@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">18.45</t>
+  </si>
+  <si>
     <t xml:space="preserve">joao@gmail.com</t>
   </si>
   <si>
@@ -71,6 +74,81 @@
   </si>
   <si>
     <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henrique@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danilo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artur@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ezequiel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paulo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deodoro@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adalberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joaquim@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricardo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.60</t>
   </si>
 </sst>
 </file>
@@ -80,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +180,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -143,7 +213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,9 +237,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -184,27 +251,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -230,7 +296,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -446,10 +512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,105 +542,277 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="pedro@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="joao@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="francisco@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="leocadio@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="rafael@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="henrique@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="danilo@gmail.com"/>
+    <hyperlink ref="A9" r:id="rId8" display="roberto@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="artur@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId10" display="tomas@gmail.com"/>
+    <hyperlink ref="A12" r:id="rId11" display="ezequiel@gmail.com"/>
+    <hyperlink ref="A13" r:id="rId12" display="paulo@gmail.com"/>
+    <hyperlink ref="A14" r:id="rId13" display="fernando@gmail.com"/>
+    <hyperlink ref="A15" r:id="rId14" display="deodoro@gmail.com"/>
+    <hyperlink ref="A16" r:id="rId15" display="adalberto@gmail.com"/>
+    <hyperlink ref="A17" r:id="rId16" display="edgar@gmail.com"/>
+    <hyperlink ref="A18" r:id="rId17" display="joaquim@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId18" display="ricardo@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
